--- a/datasets/bikesales_clean.xlsx
+++ b/datasets/bikesales_clean.xlsx
@@ -809,7 +809,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>united  states</t>
+          <t>united states</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">

--- a/datasets/bikesales_clean.xlsx
+++ b/datasets/bikesales_clean.xlsx
@@ -1930,7 +1930,7 @@
         <v>42</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>295</v>
